--- a/docs/data/ten_vs_thirty.xlsx
+++ b/docs/data/ten_vs_thirty.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="str_area" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="14">
   <si>
     <t>subject</t>
   </si>
@@ -35,34 +35,37 @@
     <t>group</t>
   </si>
   <si>
-    <t>exercise</t>
-  </si>
-  <si>
-    <t>load</t>
+    <t>legpress</t>
   </si>
   <si>
     <t>pre</t>
   </si>
   <si>
-    <t>RM30</t>
-  </si>
-  <si>
-    <t>legpress</t>
-  </si>
-  <si>
-    <t>RM10</t>
+    <t>mid</t>
   </si>
   <si>
     <t>post</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>bicepscurl</t>
   </si>
   <si>
     <t>benchpress</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>RM30</t>
+  </si>
+  <si>
+    <t>RM10</t>
+  </si>
+  <si>
+    <t>exercise</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,10 +407,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -415,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>180</v>
@@ -432,13 +435,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>200</v>
@@ -449,13 +452,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>330</v>
@@ -466,13 +469,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>350</v>
@@ -483,13 +486,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>370</v>
@@ -500,13 +503,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>400</v>
@@ -517,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>250</v>
@@ -534,13 +537,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>175</v>
@@ -551,13 +554,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>270</v>
@@ -568,13 +571,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>240</v>
@@ -585,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>190</v>
@@ -602,13 +605,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>260</v>
@@ -619,13 +622,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>320</v>
@@ -636,13 +639,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>370</v>
@@ -653,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>300</v>
@@ -670,13 +673,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>290</v>
@@ -687,13 +690,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>270</v>
@@ -704,13 +707,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>240</v>
@@ -721,13 +724,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>270</v>
@@ -738,13 +741,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>330</v>
@@ -755,13 +758,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>310</v>
@@ -772,13 +775,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>250</v>
@@ -789,13 +792,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>225</v>
@@ -806,13 +809,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>300</v>
@@ -823,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>265</v>
@@ -840,13 +843,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>320</v>
@@ -857,13 +860,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>220</v>
@@ -874,16 +877,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -891,16 +894,16 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -908,16 +911,16 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -925,16 +928,16 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>481.25</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -942,16 +945,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>500</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -959,16 +962,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>440</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -976,16 +979,16 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -993,16 +996,16 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1010,16 +1013,16 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1027,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>255</v>
@@ -1044,16 +1047,16 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1061,13 +1064,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>265</v>
@@ -1078,13 +1081,13 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>360</v>
@@ -1095,16 +1098,16 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1112,16 +1115,16 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1129,16 +1132,16 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1146,16 +1149,16 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1163,16 +1166,16 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1180,16 +1183,16 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1197,16 +1200,16 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1214,16 +1217,16 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>420</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1231,16 +1234,16 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>380</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1248,16 +1251,16 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1265,16 +1268,16 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1282,16 +1285,16 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1299,16 +1302,16 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>485</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -1316,16 +1319,16 @@
         <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1333,16 +1336,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>13.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -1350,16 +1353,16 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1367,16 +1370,16 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58">
-        <v>17.5</v>
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1384,16 +1387,16 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>32.5</v>
+        <v>481.25</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1401,16 +1404,16 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>25</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1418,16 +1421,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>22.5</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1435,16 +1438,16 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>22.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -1452,16 +1455,16 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>17.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -1469,16 +1472,16 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1486,16 +1489,16 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>21.1</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -1503,16 +1506,16 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>12.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -1520,16 +1523,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>25</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -1537,16 +1540,16 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>28.6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -1554,16 +1557,16 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>21.1</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -1571,16 +1574,16 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70">
-        <v>27.5</v>
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -1588,16 +1591,16 @@
         <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>28.6</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -1605,16 +1608,16 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72">
-        <v>17.5</v>
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -1622,16 +1625,16 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>17.5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -1639,16 +1642,16 @@
         <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -1656,16 +1659,16 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -1673,16 +1676,16 @@
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>22.5</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -1690,16 +1693,16 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -1707,16 +1710,16 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>22.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -1724,16 +1727,16 @@
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>27.5</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -1741,16 +1744,16 @@
         <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>22.5</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -1758,16 +1761,16 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -1775,16 +1778,16 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>15</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -1792,13 +1795,13 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E83">
         <v>13.6</v>
@@ -1809,16 +1812,16 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -1826,16 +1829,16 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>17.5</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -1843,16 +1846,16 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>33.6</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -1860,16 +1863,16 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>27.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -1877,13 +1880,13 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>22.5</v>
@@ -1894,13 +1897,13 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E89">
         <v>22.5</v>
@@ -1911,16 +1914,16 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -1928,16 +1931,16 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>13.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -1945,16 +1948,16 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E92">
-        <v>23.6</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -1962,16 +1965,16 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E93">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -1979,16 +1982,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>27.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -1996,16 +1999,16 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2013,16 +2016,16 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E96">
-        <v>25</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2030,16 +2033,16 @@
         <v>17</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E97">
+        <v>27.5</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2047,16 +2050,16 @@
         <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E98">
-        <v>31.1</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2064,16 +2067,16 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>17.5</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2081,16 +2084,16 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E100">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -2098,16 +2101,16 @@
         <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E101">
-        <v>26.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2115,13 +2118,13 @@
         <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E102">
         <v>20</v>
@@ -2132,13 +2135,13 @@
         <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E103">
         <v>22.5</v>
@@ -2149,16 +2152,16 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E104">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -2166,16 +2169,16 @@
         <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>21.1</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -2183,16 +2186,16 @@
         <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -2200,13 +2203,13 @@
         <v>29</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E107">
         <v>22.5</v>
@@ -2217,16 +2220,16 @@
         <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>26.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2234,13 +2237,13 @@
         <v>31</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E109">
         <v>15</v>
@@ -2254,13 +2257,13 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E110">
-        <v>36.1</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -2271,13 +2274,13 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>40</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -2288,13 +2291,13 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E112">
-        <v>57.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -2305,13 +2308,13 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E113">
-        <v>95</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -2322,13 +2325,13 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E114">
-        <v>70</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -2339,13 +2342,13 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E115">
-        <v>75</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -2356,13 +2359,13 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E116">
-        <v>65</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -2373,13 +2376,13 @@
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>47.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -2390,13 +2393,13 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>46.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -2407,13 +2410,13 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E119">
-        <v>80</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -2424,13 +2427,13 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E120">
-        <v>60</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -2441,13 +2444,13 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E121">
-        <v>70</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -2458,13 +2461,13 @@
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E122">
-        <v>75</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -2475,13 +2478,13 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -2492,13 +2495,13 @@
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E124">
-        <v>92.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -2509,13 +2512,13 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>77.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -2526,13 +2529,13 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E126">
-        <v>70</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -2543,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E127">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -2560,13 +2563,13 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -2577,13 +2580,13 @@
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E129">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -2594,13 +2597,13 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E130">
-        <v>75</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -2611,13 +2614,13 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -2628,13 +2631,13 @@
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>60</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -2645,13 +2648,13 @@
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <v>80</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -2662,13 +2665,13 @@
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>70</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -2679,13 +2682,13 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E135">
-        <v>80</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -2696,13 +2699,13 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>62.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -2710,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>40</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -2727,16 +2730,16 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>47.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -2744,16 +2747,16 @@
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -2761,16 +2764,16 @@
         <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E140">
-        <v>110</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -2778,16 +2781,16 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E141">
-        <v>70</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -2795,16 +2798,16 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E142">
-        <v>80</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -2812,16 +2815,16 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>70</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -2829,16 +2832,16 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E144">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -2846,16 +2849,16 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E145">
-        <v>57.5</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -2863,16 +2866,16 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>82.5</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -2880,16 +2883,16 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>77.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -2897,16 +2900,16 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E148">
-        <v>80</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -2914,16 +2917,16 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -2931,16 +2934,16 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E150">
-        <v>77.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -2948,16 +2951,16 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -2965,16 +2968,16 @@
         <v>18</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E152">
-        <v>87.5</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -2982,16 +2985,16 @@
         <v>19</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -2999,16 +3002,16 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E154">
-        <v>75</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -3016,16 +3019,16 @@
         <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E155">
-        <v>75</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -3033,16 +3036,16 @@
         <v>24</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E156">
-        <v>62.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -3050,16 +3053,16 @@
         <v>25</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E157">
-        <v>82.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -3067,16 +3070,16 @@
         <v>26</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E158">
-        <v>82.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -3084,16 +3087,16 @@
         <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E159">
-        <v>60</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
@@ -3101,16 +3104,16 @@
         <v>28</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E160">
-        <v>87.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
@@ -3118,16 +3121,16 @@
         <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E161">
-        <v>88.6</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -3135,16 +3138,16 @@
         <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E162">
-        <v>85</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
@@ -3152,15 +3155,1392 @@
         <v>31</v>
       </c>
       <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172">
         <v>9</v>
       </c>
-      <c r="C163" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175">
         <v>12</v>
       </c>
-      <c r="E163">
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>14</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>16</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>17</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>19</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>22</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>24</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>25</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>26</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>27</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>28</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>29</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>30</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>31</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>3</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>11</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>12</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>16</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>17</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>18</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>19</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>21</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>22</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>24</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>25</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>26</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>27</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>28</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>29</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>30</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>31</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>7</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>8</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>9</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>12</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>16</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>17</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>18</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>21</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>22</v>
+      </c>
+      <c r="B236" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>24</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>25</v>
+      </c>
+      <c r="B238" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>26</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>27</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>28</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>29</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>30</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>31</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244">
         <v>67.5</v>
       </c>
     </row>
